--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\系统集成项目管理工程师\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angkorw/RuanKao/系统集成项目管理工程师/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE7B517-C674-4CFD-901C-DF782C81061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5E830F-FB9D-8E47-A8D7-16275AB26F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="206">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1470,12 +1470,16 @@
     <t>1、规划范围管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>测试成本属于评价成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1677,6 +1681,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1694,10 +1702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1990,23 +1994,23 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="19.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="7" customWidth="1"/>
+    <col min="1" max="3" width="19.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="7" customWidth="1"/>
     <col min="6" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="33.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="22" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="22" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="15">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="70">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2033,11 +2037,11 @@
       <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="56">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2050,9 +2054,9 @@
       <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="70">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="98">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="70">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="42">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2125,24 +2129,24 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="26" style="14" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1">
+      <c r="A1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
         <v>188</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="144">
       <c r="A6" s="14" t="s">
         <v>173</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="128">
       <c r="A8" s="14" t="s">
         <v>177</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="112">
       <c r="A10" s="14" t="s">
         <v>181</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="48">
       <c r="A12" s="14" t="s">
         <v>184</v>
       </c>
@@ -2229,17 +2233,17 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="122" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" s="19" t="s">
         <v>193</v>
       </c>
@@ -2254,26 +2258,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4624772D-8333-4CC6-866B-85F1E1140FC3}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="83.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="14" t="s">
         <v>204</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="176">
       <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="64">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="80">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="80">
       <c r="A14" s="14" t="s">
         <v>44</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="80">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4">
       <c r="D21" s="6" t="s">
         <v>203</v>
       </c>
@@ -2390,23 +2394,23 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="64">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="160">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="128">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="160">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="208">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="112">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -2526,26 +2530,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F64142-D883-4EE7-9596-C97370C9F95F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" s="24" customFormat="1">
+      <c r="A1" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="160">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="144">
       <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="96">
       <c r="A12" s="13" t="s">
         <v>91</v>
       </c>
@@ -2613,6 +2617,11 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2626,29 +2635,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA806D3-D788-406F-8D3D-1903EF473DD8}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="30" style="13" customWidth="1"/>
-    <col min="3" max="3" width="62.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="32" style="13" customWidth="1"/>
-    <col min="5" max="5" width="101.75" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="101.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="25" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="25" customFormat="1"/>
+    <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="128">
       <c r="A6" s="13" t="s">
         <v>189</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="80">
       <c r="A8" s="13" t="s">
         <v>190</v>
       </c>
@@ -2690,7 +2702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="128">
       <c r="A10" s="13" t="s">
         <v>191</v>
       </c>
@@ -2704,34 +2716,34 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:5">
+      <c r="C12" s="26" t="s">
         <v>198</v>
       </c>
       <c r="E12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="22"/>
+    <row r="13" spans="1:5">
+      <c r="C13" s="24"/>
       <c r="E13" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="22"/>
+    <row r="14" spans="1:5">
+      <c r="C14" s="24"/>
       <c r="E14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="22"/>
+    <row r="15" spans="1:5">
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2751,25 +2763,25 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="13" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="69" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="56.875" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1">
+      <c r="A1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -2783,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="80">
       <c r="A6" s="14" t="s">
         <v>105</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="80">
       <c r="A8" s="14" t="s">
         <v>199</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="112">
       <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="96">
       <c r="A12" s="14" t="s">
         <v>116</v>
       </c>
@@ -2839,7 +2851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="C13" s="13" t="s">
         <v>200</v>
       </c>
@@ -2855,32 +2867,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7C7AEB-3421-4F51-A5AD-C7F9CF57091B}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" style="14" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="13" customWidth="1"/>
     <col min="5" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1">
+      <c r="A1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -2894,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="80">
       <c r="A6" s="13" t="s">
         <v>121</v>
       </c>
@@ -2908,7 +2923,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="80">
       <c r="A8" s="13" t="s">
         <v>125</v>
       </c>
@@ -2922,21 +2937,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="80">
       <c r="A10" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="C13" s="14" t="s">
         <v>201</v>
       </c>
@@ -2958,25 +2973,25 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -2990,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="64">
       <c r="A6" s="13" t="s">
         <v>134</v>
       </c>
@@ -3004,7 +3019,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="64">
       <c r="A8" s="13" t="s">
         <v>138</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="80">
       <c r="A10" s="13" t="s">
         <v>141</v>
       </c>
@@ -3032,7 +3047,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="80">
       <c r="A12" s="13" t="s">
         <v>145</v>
       </c>
@@ -3063,25 +3078,25 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="80">
       <c r="A6" s="13" t="s">
         <v>150</v>
       </c>
@@ -3109,7 +3124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="208">
       <c r="A8" s="13" t="s">
         <v>154</v>
       </c>
@@ -3123,7 +3138,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="96">
       <c r="A10" s="13" t="s">
         <v>158</v>
       </c>
@@ -3137,7 +3152,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="96">
       <c r="A12" s="13" t="s">
         <v>162</v>
       </c>
@@ -3151,7 +3166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="64">
       <c r="A14" s="13" t="s">
         <v>165</v>
       </c>
@@ -3165,7 +3180,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="96">
       <c r="A16" s="13" t="s">
         <v>169</v>
       </c>

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angkorw/RuanKao/系统集成项目管理工程师/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5E830F-FB9D-8E47-A8D7-16275AB26F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE8FB3-4E39-EE41-80F3-BC5B8B716BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="209">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1192,16 +1192,6 @@
 ⑥自制或外购决策
 ⑦采购工作说明书
 ⑧组织过程资资产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>①投标人会议
-②建议书评价技术
-③独立估算
-④专家判断
-⑤广告
-⑥分析技术
-⑦采购谈判</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1474,12 +1464,75 @@
     <t>测试成本属于评价成本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>合同管理包含合同[签订、履行、变更,档案]管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合同变更处理的首要原则是.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公平合理</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采购过程中，工作说明书【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】可以随着项目的调整修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOW</t>
+    </r>
+  </si>
+  <si>
+    <t>①投标人会议
+②建议书评价技术
+③独立估算
+④专家判断
+⑤刊登广告
+⑥分析技术
+⑦采购谈判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1585,6 +1638,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1628,7 +1701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1703,6 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2038,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="56">
@@ -2125,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F163E3-8EE0-4D1F-BCF5-4CE45E5D8A4E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2148,7 +2222,7 @@
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>2</v>
@@ -2167,7 +2241,7 @@
       <c r="B6" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="11" t="s">
         <v>175</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -2182,21 +2256,21 @@
         <v>178</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="112">
       <c r="A10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>183</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>132</v>
@@ -2204,16 +2278,16 @@
     </row>
     <row r="12" spans="1:5" ht="48">
       <c r="A12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2227,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2240,12 +2314,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="28" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2382,7 @@
     </row>
     <row r="6" spans="1:4" ht="64">
       <c r="A6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>28</v>
@@ -2377,7 +2466,7 @@
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F64142-D883-4EE7-9596-C97370C9F95F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2621,7 +2710,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2765,7 @@
     </row>
     <row r="6" spans="1:5" ht="128">
       <c r="A6" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>96</v>
@@ -2690,7 +2779,7 @@
     </row>
     <row r="8" spans="1:5" ht="80">
       <c r="A8" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>99</v>
@@ -2704,13 +2793,13 @@
     </row>
     <row r="10" spans="1:5" ht="128">
       <c r="A10" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>103</v>
@@ -2718,22 +2807,22 @@
     </row>
     <row r="12" spans="1:5">
       <c r="C12" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="24"/>
       <c r="E13" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="24"/>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2811,7 +2900,7 @@
     </row>
     <row r="8" spans="1:5" ht="80">
       <c r="A8" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>109</v>
@@ -2853,7 +2942,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +3042,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angkorw/RuanKao/系统集成项目管理工程师/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE8FB3-4E39-EE41-80F3-BC5B8B716BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8E117-085F-324D-B925-01469ACFE600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="210">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1525,6 +1525,10 @@
 ⑤刊登广告
 ⑥分析技术
 ⑦采购谈判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在投资决策时，应避免受到沉没成本的干扰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1758,6 +1762,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1776,7 +1781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2078,12 +2082,12 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="15">
       <c r="A5" s="3" t="s">
         <v>1</v>
@@ -2199,7 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F163E3-8EE0-4D1F-BCF5-4CE45E5D8A4E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2212,13 +2216,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -2301,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2333,8 +2337,13 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2360,11 +2369,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -2633,8 +2642,8 @@
     <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="24" customFormat="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" s="25" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2743,12 +2752,12 @@
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1">
+      <c r="A1" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="25" customFormat="1"/>
+    <row r="2" spans="1:5" s="26" customFormat="1"/>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
@@ -2806,7 +2815,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>197</v>
       </c>
       <c r="E12" t="s">
@@ -2814,25 +2823,25 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="E13" s="19" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="24"/>
+      <c r="C14" s="25"/>
       <c r="E14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="24"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="24"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="24"/>
+      <c r="C17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2862,13 +2871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -2975,14 +2984,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -3071,14 +3080,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -3176,14 +3185,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angkorw/RuanKao/系统集成项目管理工程师/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8E117-085F-324D-B925-01469ACFE600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489FE71-AAAB-4A4A-A215-7C396D010AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="691" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="245">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -758,14 +758,6 @@
     <t>①项目人力资源计划
 ②环境和组织因素
 ③组织过程资产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>①预分派
-②谈判
-③招募
-④虚拟团队
-⑤多标准决策分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1407,48 +1399,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>形成阶段、震荡阶段、正规阶段（规范阶段）、表现阶段（发挥阶段）、结束阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>问题解决</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>②合作③强制④妥协⑤求同存异⑥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>撤退</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目章程一般不会变，范围变更不会导致章程变化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1466,22 +1416,6 @@
   </si>
   <si>
     <t>合同管理包含合同[签订、履行、变更,档案]管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>合同变更处理的首要原则是.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公平合理</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1528,7 +1462,247 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在投资决策时，应避免受到沉没成本的干扰</t>
+    <t>税金是间接成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导管人，管理管事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息系统集成的核心是软件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二八原理，即80%的问题是20%的原因所造成的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合同变更处理的首要原则是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公平合理</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息安全属性及目标：保密性、完整性、可用性、不可抵赖性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三点估算PERT=（最乐观时间+最可能时间*4+最悲观时间）/6  计划评审技术估算时长= (悲观+乐观+4x最可能) /6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼骨图是质量控制工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>①预分派
+②谈判
+③招募
+④虚拟团队
+⑤多标准决策分析6采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>②合作③强制④妥协⑤求同存异⑥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撤退</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据5V 特点：数据量大（volume）、速度快（velocity）、类型多（variety）、 value （价值）、真实性（veracity）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>沟通渠道M=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N(N-1)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其中 N为人数，n &gt;1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>续效审计(三E审计)【经济审计，效率审计，效果审计】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入新技术会有很多不确定性，会增加冲突发生的概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4种违约责任的承担方式1）继续履行 （2）采取补救措施（3）赔偿损失（4）支付约定违约金或定金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购过程中，可以随着项目的调整修改SOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通的有效性是沟通的第一目标，非正式沟通优于正式沟通，水平沟通优于垂直沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的不明，时间太长，效率太低，缺乏效果，建设内容、项目金额、付款方式，交工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息化6要素:①信息技术应用（龙头主阵地）②信息资源(核心任务)③信息网络(应用基础)④信息技术和产业(建设基础)⑤信息化人才(成功之本)⑥信息化法规(保障)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">从软件开发生命周期的角度划分，可将项目文档分为 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发文档、产品文档、管理文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉没成本是指由于过去的决策己经发生了的，而不能由现在或将来的任何决策改变的成本，在投资决策时，应避免受到沉没成本的干扰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设项目团队依次经历5个阶段：形成期、震荡期、正规期（规范期）、表现期（发挥期），结束期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验总结会一般全员参与【相关项目干系人都需要参加】，WBS 的制定由所有项目干系人完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索赔原则：索赔的有理性、依据的有效性、计算的正确性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发生索赔事件后，一般先由监理工程师调解，若调解不成，由政府建设主管机构进行调解，若仍调解不成，由经济合同仲裁委员会进行调解或仲裁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度绩效指数SPI=EV/PV，SPI&lt;1进度滞后 SPI&gt;1 进度提前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本绩效指数CPI=EV/AC，CPI&lt;1成本超出 CPI&gt;1 成本节约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差=(悲观时间-乐观时间) /6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目可行性研究的技术评价应包括技术的（1）先进性（2）实用性（3） 可靠性（4）连锁效果（5）后果的危害性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保讨论会议成功的措施：提前确定会议目的、提前进行会议准备、按时开始会议、把握会议的发言节奏、进行会议记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老七工具：①流程图②因果图③直方图④散点图⑤排列图（帕累托图）⑥控制图⑦核查表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新七工具：①矩阵图②树形图③相互关系图④亲和图⑤过程决策程序图⑥活动网络图⑦优先矩阵（矩树相亲策动优）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论会议的主要目的是让与会人员充分发表意见，按照程序形成结论，而不能提前给出结论性的意见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目绩效评审的主要目标：决定项目是否应该进入下一个阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终目标：保障干系人之间有效沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态评审会议是预先规定的、定期进行的交流有关项目信息的事件，目的是交换项目信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对干系人管理的主要目标：促进干系人对项目的理解与支持，使干系人了解项目的进展和有可能带来的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围确认主要作用是：使验收过程具有客观性，同时通过验收，提高最终产品、服务或成果获得验收的可能性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认范围是正式验收已完成的项目可交付成果的过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正推取最大，逆推取最小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1536,7 +1710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1628,14 +1802,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="2"/>
@@ -1661,6 +1827,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1701,11 +1891,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1758,11 +1948,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1781,6 +1971,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2116,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="56">
@@ -2201,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F163E3-8EE0-4D1F-BCF5-4CE45E5D8A4E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2212,12 +2409,12 @@
     <col min="1" max="1" width="23" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="26" style="14" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
       <c r="A1" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2226,7 +2423,7 @@
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>2</v>
@@ -2240,58 +2437,63 @@
     </row>
     <row r="6" spans="1:5" ht="144">
       <c r="A6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="128">
       <c r="A8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="112">
       <c r="A10" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>182</v>
-      </c>
       <c r="D10" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="48">
       <c r="A12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>186</v>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="14" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2305,45 +2507,195 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="122" customWidth="1"/>
+    <col min="2" max="2" width="134.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>209</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="17">
+      <c r="B21" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="18">
+      <c r="B22" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2356,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4624772D-8333-4CC6-866B-85F1E1140FC3}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2365,7 +2717,7 @@
     <col min="1" max="1" width="25.1640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="91.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2391,7 +2743,7 @@
     </row>
     <row r="6" spans="1:4" ht="64">
       <c r="A6" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>28</v>
@@ -2473,9 +2825,19 @@
         <v>51</v>
       </c>
     </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
     <row r="21" spans="4:4">
       <c r="D21" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +3081,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +3100,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2774,7 +3136,7 @@
     </row>
     <row r="6" spans="1:5" ht="128">
       <c r="A6" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>96</v>
@@ -2788,7 +3150,7 @@
     </row>
     <row r="8" spans="1:5" ht="80">
       <c r="A8" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>99</v>
@@ -2802,13 +3164,13 @@
     </row>
     <row r="10" spans="1:5" ht="128">
       <c r="A10" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>103</v>
@@ -2816,22 +3178,22 @@
     </row>
     <row r="12" spans="1:5">
       <c r="C12" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="25"/>
       <c r="E13" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="25"/>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2855,17 +3217,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE9BB9-5409-4629-978A-83B1D79F1EFE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="69" style="13" customWidth="1"/>
+    <col min="3" max="3" width="85.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="56.83203125" customWidth="1"/>
   </cols>
@@ -2909,49 +3271,49 @@
     </row>
     <row r="8" spans="1:5" ht="80">
       <c r="A8" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="112">
       <c r="A10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="96">
       <c r="A12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="13" t="s">
-        <v>199</v>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2968,24 +3330,24 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="13" customWidth="1"/>
     <col min="5" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="A1" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -3009,49 +3371,59 @@
     </row>
     <row r="6" spans="1:6" ht="80">
       <c r="A6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="80">
       <c r="A8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="80">
       <c r="A10" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="14" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="14" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3065,10 +3437,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796D5BC7-2C97-4D9A-BC19-492395EECC53}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3076,12 +3448,12 @@
     <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="87.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -3105,58 +3477,63 @@
     </row>
     <row r="6" spans="1:6" ht="64">
       <c r="A6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="64">
       <c r="A8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="80">
       <c r="A10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="80">
       <c r="A12" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>148</v>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -3210,86 +3587,86 @@
     </row>
     <row r="6" spans="1:6" ht="80">
       <c r="A6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="208">
       <c r="A8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="96">
       <c r="A10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="96">
       <c r="A12" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="64">
       <c r="A14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="96">
       <c r="A16" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angkorw/RuanKao/系统集成项目管理工程师/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\RuanKao\系统集成项目管理工程师\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489FE71-AAAB-4A4A-A215-7C396D010AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE258FF-695E-4567-AE85-226C1E1F4692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="691" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="9-风险管理" sheetId="9" r:id="rId9"/>
     <sheet name="10-采购管理" sheetId="10" r:id="rId10"/>
     <sheet name="Tips" sheetId="11" r:id="rId11"/>
+    <sheet name="精炼" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="255">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1703,6 +1704,153 @@
   </si>
   <si>
     <t>正推取最大，逆推取最小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围变更控制基本流程:1提出范围变更申请2对项目各领域造成的进行变更评估3由CCB审批4开始执行变更5变更确认6范围变更通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围变化会导致进度、成本、质量、合同等变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）项目经理经验不足，进度估算不准确
+（2）项目资源配置不足或者配置不合理（或人力，或物资）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估算活动资源[工具和技术]:1专家判断 2备选方案分析 3发布的估算数据 4自下而上估算 5项目管理软件
+估算活动持续时间[工具和技术]:1专家判断 2类比估算 3参数估算 4三点估算 5群体决策技术 6储备分析
+制定进度计划的[工具和技术]:1进度网络分析 2关键路径法 3关键链法 4资源优化技术 建模技术 6提前量和滞后量 7 进度压缩 8进度计划编制工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全面质量管理4个核心的特征：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全员参加、全过程、全面方法、全面结果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质量管理可能遇到的问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（1）质量保证人员经验不足；
+（2）没有制定和实施合理的、可操作性的质量管理计划（或进度计划代替了整个项目的质量管理计划）；
+（3）项目经理在项目质量管理方面的经验欠缺；
+（4）进度计划制定的不合理（或进度计划安排过于紧张）；
+（5）测试过程的阶段安排不合理，软件系统的测试时间不足；
+（6）需求分析、系统设计阶段的质量控制可能不到位、缺少评审环节；
+（7）测试过程中配置管理工作未到位；
+（8）项目缺乏质量标准和质量规范；
+（9）没有建立项目的质量保证体系；
+（10）在质量管理中，没有采用合适的工具、技术和方法；
+（11）项目在需求分析阶段对用户的需求分析提炼精度不够，没有挖掘到部分重要的需求
+（12）由于文档的不完备，一方面导致用户不能解决一些使用问题， 另一方面还使得维护工作的效率提不高
+（13）仅向用户提交测试报告而没有提交全面质量管理进展情况报告（或实施报告） 
+（14）沟通方式单一或不全面，容易误导用户，致用户不必要的担心。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>针对性的解决措施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（1）应使用有相关行业经验、项目经验和质量管理经验的质量保证人员；
+（2）应该科学制定和实施质量管理计划；
+（3）重视软件项目的测试环节，安排必要的时间， 采用合理的方法进行充分测试； 
+（4）应加强需求和设计方案的评审和质量控制工作；
+（5）应重视软件开发过程中的质量保证工作，采用相应的工具和技术，避免将检查、测试作 为项目质量保证的唯一方法；
+（6）应加强项目实施过程中的配置管理工作；
+（7）应建立项目的质量管理体系，包括制定可行的过程规范和质量目标、质量标准； 
+（8）对发现的缺陷进行统计分析，确保软件质量；
+（9）提出合理有效的质量整改措施（如建议的纠正措施、对项目计划可能的更新等）； 
+（10）为项目组成员提供质量管理要求方面的培训（或指导）；
+（11）加强与客户在质量管理方面的沟通和交流等；</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如何控制产品的质量:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1强有力的领导2建立组织级项目管理体系3建立组织级质量管理体系4建立项目级激励制度5理解质量成6提高项目文档质量（项目文档应有针对性、精确性、清晰性、完整性、灵活性、可追溯性）7发展和遵从成熟度模型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB 是决策机构,不是作业机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施变更之前4个重要控制点：授权、审核、评估,确认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1895,7 +2043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1953,6 +2101,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1971,13 +2126,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2269,23 +2426,23 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="19.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="7" customWidth="1"/>
+    <col min="1" max="3" width="19.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="7" customWidth="1"/>
     <col min="6" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="33.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="33.375" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2299,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="70">
+    <row r="6" spans="1:5" ht="63.75">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2473,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56">
+    <row r="8" spans="1:5" ht="51">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2488,7 @@
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="70">
+    <row r="10" spans="1:5" ht="63.75">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="98">
+    <row r="12" spans="1:5" ht="89.25">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="70">
+    <row r="14" spans="1:5" ht="63.75">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2373,7 +2530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="42">
+    <row r="16" spans="1:5" ht="38.25">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2404,22 +2561,22 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="26" style="14" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="54.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -2435,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="144">
+    <row r="6" spans="1:5" ht="128.25">
       <c r="A6" s="14" t="s">
         <v>172</v>
       </c>
@@ -2449,7 +2606,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="128">
+    <row r="8" spans="1:5" ht="114">
       <c r="A8" s="14" t="s">
         <v>176</v>
       </c>
@@ -2463,7 +2620,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="112">
+    <row r="10" spans="1:5" ht="99.75">
       <c r="A10" s="14" t="s">
         <v>179</v>
       </c>
@@ -2477,7 +2634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="48">
+    <row r="12" spans="1:5" ht="42.75">
       <c r="A12" s="14" t="s">
         <v>182</v>
       </c>
@@ -2507,15 +2664,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B37"/>
+  <dimension ref="B2:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="134.83203125" customWidth="1"/>
+    <col min="2" max="2" width="134.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -2613,13 +2770,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17">
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="2:2" ht="16.5">
+      <c r="B21" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18">
-      <c r="B22" s="30" t="s">
+    <row r="22" spans="2:2" ht="16.5">
+      <c r="B22" s="24" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2639,7 +2796,7 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="25" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2696,6 +2853,60 @@
     <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03009266-14FB-43A0-85E8-01A9D9BBC3CE}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="125.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="28.5">
+      <c r="B2" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="42.75">
+      <c r="B3" s="32" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2712,20 +2923,20 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="91.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="91.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -2741,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="14" t="s">
         <v>200</v>
       </c>
@@ -2755,7 +2966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="176">
+    <row r="8" spans="1:4" ht="156.75">
       <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
@@ -2769,7 +2980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="64">
+    <row r="10" spans="1:4" ht="57">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -2783,7 +2994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="80">
+    <row r="12" spans="1:4" ht="71.25">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -2797,7 +3008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="80">
+    <row r="14" spans="1:4" ht="71.25">
       <c r="A14" s="14" t="s">
         <v>44</v>
       </c>
@@ -2811,7 +3022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="80">
+    <row r="16" spans="1:4" ht="71.25">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -2857,12 +3068,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2884,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2898,7 +3109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="64">
+    <row r="8" spans="1:4" ht="57">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -2912,7 +3123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="160">
+    <row r="10" spans="1:4" ht="142.5">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -2926,7 +3137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="128">
+    <row r="12" spans="1:4" ht="114">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -2940,7 +3151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="160">
+    <row r="14" spans="1:4" ht="142.5">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -2954,7 +3165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="208">
+    <row r="16" spans="1:4" ht="185.25">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -2968,7 +3179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="112">
+    <row r="18" spans="1:4" ht="99.75">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -2996,16 +3207,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="25" customFormat="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" s="28" customFormat="1">
+      <c r="A1" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3023,7 +3234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
@@ -3037,7 +3248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="160">
+    <row r="8" spans="1:4" ht="142.5">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
@@ -3051,7 +3262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="144">
+    <row r="10" spans="1:4" ht="128.25">
       <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
@@ -3065,7 +3276,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="96">
+    <row r="12" spans="1:4" ht="85.5">
       <c r="A12" s="13" t="s">
         <v>91</v>
       </c>
@@ -3100,26 +3311,26 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="30" style="13" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="62.125" style="13" customWidth="1"/>
     <col min="4" max="4" width="32" style="13" customWidth="1"/>
-    <col min="5" max="5" width="101.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="101.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" s="29" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="26" customFormat="1"/>
+    <row r="2" spans="1:5" s="29" customFormat="1"/>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
@@ -3134,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="128">
+    <row r="6" spans="1:5" ht="213.75">
       <c r="A6" s="13" t="s">
         <v>187</v>
       </c>
@@ -3144,11 +3355,14 @@
       <c r="C6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="80">
+      <c r="E6" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="171">
       <c r="A8" s="13" t="s">
         <v>188</v>
       </c>
@@ -3158,11 +3372,14 @@
       <c r="C8" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="128">
+      <c r="E8" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="114">
       <c r="A10" s="13" t="s">
         <v>189</v>
       </c>
@@ -3175,9 +3392,12 @@
       <c r="D10" s="12" t="s">
         <v>103</v>
       </c>
+      <c r="E10" s="34" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="30" t="s">
         <v>196</v>
       </c>
       <c r="E12" t="s">
@@ -3185,25 +3405,25 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="25"/>
+      <c r="C13" s="28"/>
       <c r="E13" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="25"/>
+      <c r="C14" s="28"/>
       <c r="E14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="25"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="25"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="25"/>
+      <c r="C17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3223,23 +3443,23 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="26.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="13" customWidth="1"/>
     <col min="3" max="3" width="85.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="56.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="56.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -3255,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="80">
+    <row r="6" spans="1:5" ht="71.25">
       <c r="A6" s="14" t="s">
         <v>105</v>
       </c>
@@ -3269,7 +3489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="80">
+    <row r="8" spans="1:5" ht="71.25">
       <c r="A8" s="14" t="s">
         <v>197</v>
       </c>
@@ -3283,7 +3503,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="112">
+    <row r="10" spans="1:5" ht="99.75">
       <c r="A10" s="14" t="s">
         <v>111</v>
       </c>
@@ -3297,7 +3517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="96">
+    <row r="12" spans="1:5" ht="85.5">
       <c r="A12" s="14" t="s">
         <v>115</v>
       </c>
@@ -3336,24 +3556,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="68.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="68.375" style="14" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="13" customWidth="1"/>
     <col min="5" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -3369,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="80">
+    <row r="6" spans="1:6" ht="71.25">
       <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
@@ -3383,7 +3603,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="80">
+    <row r="8" spans="1:6" ht="71.25">
       <c r="A8" s="13" t="s">
         <v>124</v>
       </c>
@@ -3397,7 +3617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="80">
+    <row r="10" spans="1:6" ht="71.25">
       <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
@@ -3443,23 +3663,23 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="87.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -3475,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="64">
+    <row r="6" spans="1:6" ht="57">
       <c r="A6" s="13" t="s">
         <v>133</v>
       </c>
@@ -3489,7 +3709,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="64">
+    <row r="8" spans="1:6" ht="57">
       <c r="A8" s="13" t="s">
         <v>137</v>
       </c>
@@ -3503,7 +3723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="80">
+    <row r="10" spans="1:6" ht="71.25">
       <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
@@ -3517,7 +3737,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="80">
+    <row r="12" spans="1:6" ht="71.25">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
@@ -3553,23 +3773,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -3585,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="80">
+    <row r="6" spans="1:6" ht="71.25">
       <c r="A6" s="13" t="s">
         <v>149</v>
       </c>
@@ -3599,7 +3819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="208">
+    <row r="8" spans="1:6" ht="185.25">
       <c r="A8" s="13" t="s">
         <v>153</v>
       </c>
@@ -3613,7 +3833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="96">
+    <row r="10" spans="1:6" ht="85.5">
       <c r="A10" s="13" t="s">
         <v>157</v>
       </c>
@@ -3627,7 +3847,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="96">
+    <row r="12" spans="1:6" ht="85.5">
       <c r="A12" s="13" t="s">
         <v>161</v>
       </c>
@@ -3641,7 +3861,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="64">
+    <row r="14" spans="1:6" ht="57">
       <c r="A14" s="13" t="s">
         <v>164</v>
       </c>
@@ -3655,7 +3875,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="96">
+    <row r="16" spans="1:6" ht="85.5">
       <c r="A16" s="13" t="s">
         <v>168</v>
       </c>

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\RuanKao\系统集成项目管理工程师\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE258FF-695E-4567-AE85-226C1E1F4692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89A04E-006E-4507-84BD-AD34DBD29A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="256">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1851,6 +1851,10 @@
   </si>
   <si>
     <t>实施变更之前4个重要控制点：授权、审核、评估,确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 种基本质量工具：（由粗到细，有表面到根本）散布图、直方图、帕累托图、因果图、流程图、检查表和控制图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2108,6 +2112,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2125,15 +2138,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2436,12 +2440,12 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:5" s="29" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
@@ -2570,13 +2574,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -2664,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B42"/>
+  <dimension ref="B2:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2878,6 +2882,11 @@
     <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2900,12 +2909,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="28.5">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="42.75">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2932,11 +2941,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -3215,8 +3224,8 @@
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="28" customFormat="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4" s="31" customFormat="1">
+      <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3325,12 +3334,12 @@
     <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="29" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="32" customFormat="1">
+      <c r="A1" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="29" customFormat="1"/>
+    <row r="2" spans="1:5" s="32" customFormat="1"/>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
@@ -3358,7 +3367,7 @@
       <c r="D6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="26" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3375,7 +3384,7 @@
       <c r="D8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="27" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3392,12 +3401,12 @@
       <c r="D10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>196</v>
       </c>
       <c r="E12" t="s">
@@ -3405,25 +3414,25 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="28"/>
+      <c r="C13" s="31"/>
       <c r="E13" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="28"/>
+      <c r="C14" s="31"/>
       <c r="E14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="28"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="28"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="28"/>
+      <c r="C17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3453,13 +3462,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -3566,14 +3575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -3672,14 +3681,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -3782,14 +3791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\RuanKao\系统集成项目管理工程师\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89A04E-006E-4507-84BD-AD34DBD29A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95EDFED-FF81-406F-BAC6-03FA2FAC0C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="4425" windowWidth="21600" windowHeight="11385" tabRatio="691" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="259">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1855,6 +1855,18 @@
   </si>
   <si>
     <t>7 种基本质量工具：（由粗到细，有表面到根本）散布图、直方图、帕累托图、因果图、流程图、检查表和控制图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源平滑技术不会改变关键路径，达不到缩短工期的目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目工期就是找出时间最长的一条路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速跟进：把正常情况下按顺序执行的活动或阶段并行执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2668,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B43"/>
+  <dimension ref="B2:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2887,6 +2899,21 @@
     <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\RuanKao\系统集成项目管理工程师\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angkorw/RuanKao/系统集成项目管理工程师/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95EDFED-FF81-406F-BAC6-03FA2FAC0C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B3B92F-6F00-C246-9BA7-EE5D71641042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4425" windowWidth="21600" windowHeight="11385" tabRatio="691" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="691" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="266">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1869,12 +1869,53 @@
     <t>快速跟进：把正常情况下按顺序执行的活动或阶段并行执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>配置项的状态分为“草稿”“正式”、“正在修改”3种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信息化结构包括：产品（服务）层，作业层，管理层，决策层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息化的主体是全体社会成员，包括政府、企业、事业、团体和个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息反映的是事物或者事件确定的状态，具有客观性、普遍性特点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>目前我国的信息化建设处于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深入发展阶段</t>
+    </r>
+  </si>
+  <si>
+    <t>IT 服务的核心要素指的是人员、过程、技术、资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般公认信息系统审计原则包括：ISACA 公告、ISACA 公告职业准则、ISACA 职业道德规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2015,6 +2056,15 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2442,13 +2492,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="19.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="7" customWidth="1"/>
+    <col min="1" max="3" width="19.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="7" customWidth="1"/>
     <col min="6" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="33.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -2458,7 +2508,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="29" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="15">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63.75">
+    <row r="6" spans="1:5" ht="70">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2489,7 +2539,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51">
+    <row r="8" spans="1:5" ht="56">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2554,7 @@
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="63.75">
+    <row r="10" spans="1:5" ht="70">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2518,7 +2568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="89.25">
+    <row r="12" spans="1:5" ht="98">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -2532,7 +2582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="63.75">
+    <row r="14" spans="1:5" ht="70">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2546,7 +2596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.25">
+    <row r="16" spans="1:5" ht="42">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2577,12 +2627,12 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="26" style="14" customWidth="1"/>
-    <col min="4" max="4" width="54.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
@@ -2608,7 +2658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="128.25">
+    <row r="6" spans="1:5" ht="144">
       <c r="A6" s="14" t="s">
         <v>172</v>
       </c>
@@ -2622,7 +2672,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="114">
+    <row r="8" spans="1:5" ht="128">
       <c r="A8" s="14" t="s">
         <v>176</v>
       </c>
@@ -2636,7 +2686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="99.75">
+    <row r="10" spans="1:5" ht="112">
       <c r="A10" s="14" t="s">
         <v>179</v>
       </c>
@@ -2650,7 +2700,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42.75">
+    <row r="12" spans="1:5" ht="48">
       <c r="A12" s="14" t="s">
         <v>182</v>
       </c>
@@ -2680,15 +2730,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B46"/>
+  <dimension ref="B2:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="134.875" customWidth="1"/>
+    <col min="2" max="2" width="134.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -2786,12 +2836,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="16.5">
+    <row r="21" spans="2:2" ht="17">
       <c r="B21" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16.5">
+    <row r="22" spans="2:2" ht="18">
       <c r="B22" s="24" t="s">
         <v>223</v>
       </c>
@@ -2914,6 +2964,46 @@
     <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2930,17 +3020,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="125.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="28.5">
+    <row r="2" spans="2:2" ht="32">
       <c r="B2" s="26" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="42.75">
+    <row r="3" spans="2:2" ht="48">
       <c r="B3" s="26" t="s">
         <v>248</v>
       </c>
@@ -2959,12 +3049,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="91.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="91.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2988,7 +3078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="14" t="s">
         <v>200</v>
       </c>
@@ -3002,7 +3092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="156.75">
+    <row r="8" spans="1:4" ht="176">
       <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
@@ -3016,7 +3106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57">
+    <row r="10" spans="1:4" ht="64">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3030,7 +3120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.25">
+    <row r="12" spans="1:4" ht="80">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -3044,7 +3134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="71.25">
+    <row r="14" spans="1:4" ht="80">
       <c r="A14" s="14" t="s">
         <v>44</v>
       </c>
@@ -3058,7 +3148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="71.25">
+    <row r="16" spans="1:4" ht="80">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -3104,12 +3194,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3131,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3145,7 +3235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57">
+    <row r="8" spans="1:4" ht="64">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -3159,7 +3249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="142.5">
+    <row r="10" spans="1:4" ht="160">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -3173,7 +3263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="114">
+    <row r="12" spans="1:4" ht="128">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -3187,7 +3277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="142.5">
+    <row r="14" spans="1:4" ht="160">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -3201,7 +3291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="185.25">
+    <row r="16" spans="1:4" ht="208">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -3215,7 +3305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="99.75">
+    <row r="18" spans="1:4" ht="112">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -3243,12 +3333,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="31" customFormat="1">
@@ -3270,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
@@ -3284,7 +3374,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5">
+    <row r="8" spans="1:4" ht="160">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
@@ -3298,7 +3388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="128.25">
+    <row r="10" spans="1:4" ht="144">
       <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
@@ -3312,7 +3402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5">
+    <row r="12" spans="1:4" ht="96">
       <c r="A12" s="13" t="s">
         <v>91</v>
       </c>
@@ -3351,14 +3441,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="30" style="13" customWidth="1"/>
-    <col min="3" max="3" width="62.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="32" style="13" customWidth="1"/>
-    <col min="5" max="5" width="101.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="101.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="32" customFormat="1">
@@ -3381,7 +3471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="213.75">
+    <row r="6" spans="1:5" ht="240">
       <c r="A6" s="13" t="s">
         <v>187</v>
       </c>
@@ -3398,7 +3488,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="171">
+    <row r="8" spans="1:5" ht="192">
       <c r="A8" s="13" t="s">
         <v>188</v>
       </c>
@@ -3415,7 +3505,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="114">
+    <row r="10" spans="1:5" ht="128">
       <c r="A10" s="13" t="s">
         <v>189</v>
       </c>
@@ -3479,13 +3569,13 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="85.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="56.875" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -3511,7 +3601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="71.25">
+    <row r="6" spans="1:5" ht="80">
       <c r="A6" s="14" t="s">
         <v>105</v>
       </c>
@@ -3525,7 +3615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="71.25">
+    <row r="8" spans="1:5" ht="80">
       <c r="A8" s="14" t="s">
         <v>197</v>
       </c>
@@ -3539,7 +3629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="99.75">
+    <row r="10" spans="1:5" ht="112">
       <c r="A10" s="14" t="s">
         <v>111</v>
       </c>
@@ -3553,7 +3643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="85.5">
+    <row r="12" spans="1:5" ht="96">
       <c r="A12" s="14" t="s">
         <v>115</v>
       </c>
@@ -3592,11 +3682,11 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="68.375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="13" customWidth="1"/>
     <col min="5" max="6" width="31.5" customWidth="1"/>
   </cols>
@@ -3625,7 +3715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25">
+    <row r="6" spans="1:6" ht="80">
       <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
@@ -3639,7 +3729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="71.25">
+    <row r="8" spans="1:6" ht="80">
       <c r="A8" s="13" t="s">
         <v>124</v>
       </c>
@@ -3653,7 +3743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25">
+    <row r="10" spans="1:6" ht="80">
       <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
@@ -3699,12 +3789,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="87.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="87.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3731,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57">
+    <row r="6" spans="1:6" ht="64">
       <c r="A6" s="13" t="s">
         <v>133</v>
       </c>
@@ -3745,7 +3835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57">
+    <row r="8" spans="1:6" ht="64">
       <c r="A8" s="13" t="s">
         <v>137</v>
       </c>
@@ -3759,7 +3849,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25">
+    <row r="10" spans="1:6" ht="80">
       <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
@@ -3773,7 +3863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="71.25">
+    <row r="12" spans="1:6" ht="80">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
@@ -3809,12 +3899,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3841,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25">
+    <row r="6" spans="1:6" ht="80">
       <c r="A6" s="13" t="s">
         <v>149</v>
       </c>
@@ -3855,7 +3945,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="185.25">
+    <row r="8" spans="1:6" ht="208">
       <c r="A8" s="13" t="s">
         <v>153</v>
       </c>
@@ -3869,7 +3959,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="85.5">
+    <row r="10" spans="1:6" ht="96">
       <c r="A10" s="13" t="s">
         <v>157</v>
       </c>
@@ -3883,7 +3973,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="85.5">
+    <row r="12" spans="1:6" ht="96">
       <c r="A12" s="13" t="s">
         <v>161</v>
       </c>
@@ -3897,7 +3987,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57">
+    <row r="14" spans="1:6" ht="64">
       <c r="A14" s="13" t="s">
         <v>164</v>
       </c>
@@ -3911,7 +4001,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="85.5">
+    <row r="16" spans="1:6" ht="96">
       <c r="A16" s="13" t="s">
         <v>168</v>
       </c>

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angkorw/RuanKao/系统集成项目管理工程师/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\RuanKao\系统集成项目管理工程师\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B3B92F-6F00-C246-9BA7-EE5D71641042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A390088-04FD-45C1-AACC-A83C4812B053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="691" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="9-风险管理" sheetId="9" r:id="rId9"/>
     <sheet name="10-采购管理" sheetId="10" r:id="rId10"/>
     <sheet name="Tips" sheetId="11" r:id="rId11"/>
-    <sheet name="精炼" sheetId="12" r:id="rId12"/>
+    <sheet name="5大过程组" sheetId="13" r:id="rId12"/>
+    <sheet name="精炼" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="311">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1910,12 +1911,210 @@
     <t>一般公认信息系统审计原则包括：ISACA 公告、ISACA 公告职业准则、ISACA 职业道德规范</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>知识领域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1规划范围管理
+5.2收集需求
+5.3定义范围
+5.4创建工作分解结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5确认范围
+5.6控制范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4监控项目工作
+4.5实施整体变更控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1规范进度管理
+6.2定义活动
+6.3排列活动顺序
+6.4估算活动资源
+6.5估算活动持续时间
+6.6制定进度管理计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1规划成本管理
+7.2估算成本
+7.3制定预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2组建项目团队
+9.3建设项目团以
+9.4管理项目团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1规划风险管理
+11.2识别风险
+11.3实施定性风险分析
+11.4实施定量风险分析
+11.5制定风险分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.1识别干系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.2规划干系人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.3管理干系人参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.4控制干系人参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.4结束采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3控制采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2实施采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.1规划采购管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.6控制风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1规划沟酒管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2管理沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3控制沟酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1规划人力资源管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1规划质量管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2实施质量保证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3控制质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4控制成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.7控制进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1制定项目章程 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2制定项目管理计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3指导与管理项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6结束项目或阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,6 +2265,23 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2109,7 +2325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2201,6 +2417,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2492,13 +2720,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="19.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="7" customWidth="1"/>
+    <col min="1" max="3" width="19.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="7" customWidth="1"/>
     <col min="6" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="33.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="33.375" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -2508,7 +2736,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="29" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="15">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2522,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="70">
+    <row r="6" spans="1:5" ht="63.75">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56">
+    <row r="8" spans="1:5" ht="51">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2782,7 @@
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="70">
+    <row r="10" spans="1:5" ht="63.75">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2568,7 +2796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="98">
+    <row r="12" spans="1:5" ht="89.25">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -2582,7 +2810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="70">
+    <row r="14" spans="1:5" ht="63.75">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2596,7 +2824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="42">
+    <row r="16" spans="1:5" ht="38.25">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2624,15 +2852,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="26" style="14" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="54.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
@@ -2658,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="144">
+    <row r="6" spans="1:5" ht="128.25">
       <c r="A6" s="14" t="s">
         <v>172</v>
       </c>
@@ -2672,7 +2900,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="128">
+    <row r="8" spans="1:5" ht="114">
       <c r="A8" s="14" t="s">
         <v>176</v>
       </c>
@@ -2686,7 +2914,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="112">
+    <row r="10" spans="1:5" ht="99.75">
       <c r="A10" s="14" t="s">
         <v>179</v>
       </c>
@@ -2700,7 +2928,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="48">
+    <row r="12" spans="1:5" ht="42.75">
       <c r="A12" s="14" t="s">
         <v>182</v>
       </c>
@@ -2732,13 +2960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
   <dimension ref="B2:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="134.83203125" customWidth="1"/>
+    <col min="2" max="2" width="134.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -2836,12 +3064,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17">
+    <row r="21" spans="2:2" ht="16.5">
       <c r="B21" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18">
+    <row r="22" spans="2:2" ht="16.5">
       <c r="B22" s="24" t="s">
         <v>223</v>
       </c>
@@ -3013,6 +3241,271 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744D785B-7966-44AE-B509-FA00F80BC85C}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.25" style="39" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="38" customFormat="1" ht="20.25">
+      <c r="A1" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="31"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="31"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" s="36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="E19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C11:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03009266-14FB-43A0-85E8-01A9D9BBC3CE}">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -3020,17 +3513,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="125.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="32">
+    <row r="2" spans="2:2" ht="28.5">
       <c r="B2" s="26" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="48">
+    <row r="3" spans="2:2" ht="42.75">
       <c r="B3" s="26" t="s">
         <v>248</v>
       </c>
@@ -3049,12 +3542,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="91.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="91.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3078,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="14" t="s">
         <v>200</v>
       </c>
@@ -3092,7 +3585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="176">
+    <row r="8" spans="1:4" ht="156.75">
       <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
@@ -3106,7 +3599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="64">
+    <row r="10" spans="1:4" ht="57">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3120,7 +3613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="80">
+    <row r="12" spans="1:4" ht="71.25">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -3134,7 +3627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="80">
+    <row r="14" spans="1:4" ht="71.25">
       <c r="A14" s="14" t="s">
         <v>44</v>
       </c>
@@ -3148,7 +3641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="80">
+    <row r="16" spans="1:4" ht="71.25">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -3194,12 +3687,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3221,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3235,7 +3728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="64">
+    <row r="8" spans="1:4" ht="57">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -3249,7 +3742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="160">
+    <row r="10" spans="1:4" ht="142.5">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -3263,7 +3756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="128">
+    <row r="12" spans="1:4" ht="114">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -3277,7 +3770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="160">
+    <row r="14" spans="1:4" ht="142.5">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -3291,7 +3784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="208">
+    <row r="16" spans="1:4" ht="185.25">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -3305,7 +3798,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="112">
+    <row r="18" spans="1:4" ht="99.75">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -3333,12 +3826,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="31" customFormat="1">
@@ -3360,7 +3853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
@@ -3374,7 +3867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="160">
+    <row r="8" spans="1:4" ht="142.5">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
@@ -3388,7 +3881,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="144">
+    <row r="10" spans="1:4" ht="128.25">
       <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
@@ -3402,7 +3895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="96">
+    <row r="12" spans="1:4" ht="85.5">
       <c r="A12" s="13" t="s">
         <v>91</v>
       </c>
@@ -3441,14 +3934,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="30" style="13" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="62.125" style="13" customWidth="1"/>
     <col min="4" max="4" width="32" style="13" customWidth="1"/>
-    <col min="5" max="5" width="101.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="101.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="32" customFormat="1">
@@ -3471,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="240">
+    <row r="6" spans="1:5" ht="213.75">
       <c r="A6" s="13" t="s">
         <v>187</v>
       </c>
@@ -3488,7 +3981,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="192">
+    <row r="8" spans="1:5" ht="171">
       <c r="A8" s="13" t="s">
         <v>188</v>
       </c>
@@ -3505,7 +3998,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="128">
+    <row r="10" spans="1:5" ht="114">
       <c r="A10" s="13" t="s">
         <v>189</v>
       </c>
@@ -3569,13 +4062,13 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="26.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="13" customWidth="1"/>
     <col min="3" max="3" width="85.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="56.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="56.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -3601,7 +4094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="80">
+    <row r="6" spans="1:5" ht="71.25">
       <c r="A6" s="14" t="s">
         <v>105</v>
       </c>
@@ -3615,7 +4108,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="80">
+    <row r="8" spans="1:5" ht="71.25">
       <c r="A8" s="14" t="s">
         <v>197</v>
       </c>
@@ -3629,7 +4122,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="112">
+    <row r="10" spans="1:5" ht="99.75">
       <c r="A10" s="14" t="s">
         <v>111</v>
       </c>
@@ -3643,7 +4136,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="96">
+    <row r="12" spans="1:5" ht="85.5">
       <c r="A12" s="14" t="s">
         <v>115</v>
       </c>
@@ -3682,11 +4175,11 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="68.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="68.375" style="14" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="13" customWidth="1"/>
     <col min="5" max="6" width="31.5" customWidth="1"/>
   </cols>
@@ -3715,7 +4208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="80">
+    <row r="6" spans="1:6" ht="71.25">
       <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
@@ -3729,7 +4222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="80">
+    <row r="8" spans="1:6" ht="71.25">
       <c r="A8" s="13" t="s">
         <v>124</v>
       </c>
@@ -3743,7 +4236,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="80">
+    <row r="10" spans="1:6" ht="71.25">
       <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
@@ -3785,16 +4278,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796D5BC7-2C97-4D9A-BC19-492395EECC53}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="87.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3821,7 +4314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="64">
+    <row r="6" spans="1:6" ht="57">
       <c r="A6" s="13" t="s">
         <v>133</v>
       </c>
@@ -3835,7 +4328,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="64">
+    <row r="8" spans="1:6" ht="57">
       <c r="A8" s="13" t="s">
         <v>137</v>
       </c>
@@ -3849,7 +4342,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="80">
+    <row r="10" spans="1:6" ht="71.25">
       <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
@@ -3863,7 +4356,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="80">
+    <row r="12" spans="1:6" ht="71.25">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
@@ -3899,12 +4392,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3931,7 +4424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="80">
+    <row r="6" spans="1:6" ht="71.25">
       <c r="A6" s="13" t="s">
         <v>149</v>
       </c>
@@ -3945,7 +4438,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="208">
+    <row r="8" spans="1:6" ht="185.25">
       <c r="A8" s="13" t="s">
         <v>153</v>
       </c>
@@ -3959,7 +4452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="96">
+    <row r="10" spans="1:6" ht="85.5">
       <c r="A10" s="13" t="s">
         <v>157</v>
       </c>
@@ -3973,7 +4466,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="96">
+    <row r="12" spans="1:6" ht="85.5">
       <c r="A12" s="13" t="s">
         <v>161</v>
       </c>
@@ -3987,7 +4480,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="64">
+    <row r="14" spans="1:6" ht="57">
       <c r="A14" s="13" t="s">
         <v>164</v>
       </c>
@@ -4001,7 +4494,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="96">
+    <row r="16" spans="1:6" ht="85.5">
       <c r="A16" s="13" t="s">
         <v>168</v>
       </c>

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\RuanKao\系统集成项目管理工程师\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A390088-04FD-45C1-AACC-A83C4812B053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D530AE6-6C4D-453A-AF02-97CB656F6AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-整体管理" sheetId="1" r:id="rId1"/>
@@ -1940,46 +1940,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.1规划范围管理
-5.2收集需求
-5.3定义范围
-5.4创建工作分解结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5确认范围
-5.6控制范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4监控项目工作
-4.5实施整体变更控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>进度管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.1规范进度管理
-6.2定义活动
-6.3排列活动顺序
-6.4估算活动资源
-6.5估算活动持续时间
-6.6制定进度管理计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成本管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.1规划成本管理
-7.2估算成本
-7.3制定预算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>质量管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1988,12 +1956,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9.2组建项目团队
-9.3建设项目团以
-9.4管理项目团队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>沟通管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2002,14 +1964,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11.1规划风险管理
-11.2识别风险
-11.3实施定性风险分析
-11.4实施定量风险分析
-11.5制定风险分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>采购管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2018,95 +1972,141 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13.1识别干系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.2规划干系人管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.3管理干系人参与</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.4控制干系人参与</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.4结束采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.3控制采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.2实施采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.1规划采购管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.6控制风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1规划沟酒管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2管理沟通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.3控制沟酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1规划人力资源管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.1规划质量管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.2实施质量保证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.3控制质量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.4控制成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.7控制进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1制定项目章程 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.2制定项目管理计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3指导与管理项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.6结束项目或阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>结束过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划沟酒管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2管理沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3控制沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划风险管理
+2识别风险
+3实施定性风险分析
+4实施定量风险分析
+5制定风险分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6控制风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划采购管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2实施采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3控制采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4结束采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1识别干系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2规划干系人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3管理干系人参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4控制干系人参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划人力资源管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组建项目团队
+3建设项目团以
+4管理项目团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划质量管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2实施质量保证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3控制质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划成本管理
+2估算成本
+3制定预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4控制成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规范进度管理
+2定义活动
+3排列活动顺序
+4估算活动资源
+5估算活动持续时间
+6制定进度管理计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7控制进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划范围管理
+2收集需求
+3定义范围
+4创建工作分解结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5确认范围
+6控制范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1制定项目章程 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2制定项目管理计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3指导与管理项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4监控项目工作
+5实施整体变更控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2114,7 +2114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2282,8 +2282,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2306,8 +2329,23 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2315,8 +2353,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2324,8 +2392,17 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2399,41 +2476,93 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="注释" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2730,12 +2859,12 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="29" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
@@ -2864,13 +2993,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -3242,262 +3371,274 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744D785B-7966-44AE-B509-FA00F80BC85C}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="30" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" ht="20.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="20.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1">
+      <c r="A2" s="54">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" s="36" t="s">
+    <row r="3" spans="1:7">
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="54">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5" s="41"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="41"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="42" customFormat="1">
+      <c r="A8" s="55">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" s="45" customFormat="1">
+      <c r="A14" s="56">
+        <v>4</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="57">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="31"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="31"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="31"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="31"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="D17" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18" s="58">
+        <v>4</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="D18" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:7" s="42" customFormat="1">
+      <c r="A21" s="55">
+        <v>3</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="C18" s="36" t="s">
+      <c r="D21" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="51" customFormat="1">
+      <c r="A22" s="59">
+        <v>6</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="53"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" s="53"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" s="53"/>
+    </row>
+    <row r="27" spans="1:7" s="20" customFormat="1">
+      <c r="A27" s="58">
+        <v>4</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="E19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21" s="31"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="39" t="s">
+      <c r="D27" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1">
+      <c r="A28" s="57">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C23" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" t="s">
-        <v>302</v>
-      </c>
-      <c r="E23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="E30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="31"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="C33" s="31"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="C34" s="31"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C35" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C28" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="E35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" t="s">
-        <v>289</v>
-      </c>
-      <c r="D36" t="s">
-        <v>290</v>
-      </c>
-      <c r="E36" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3551,11 +3692,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -3834,8 +3975,8 @@
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="31" customFormat="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" s="34" customFormat="1">
+      <c r="A1" s="34" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3944,12 +4085,12 @@
     <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:5" s="35" customFormat="1">
+      <c r="A1" s="35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="32" customFormat="1"/>
+    <row r="2" spans="1:5" s="35" customFormat="1"/>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
@@ -4016,7 +4157,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="36" t="s">
         <v>196</v>
       </c>
       <c r="E12" t="s">
@@ -4024,25 +4165,25 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="31"/>
+      <c r="C13" s="34"/>
       <c r="E13" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="31"/>
+      <c r="C14" s="34"/>
       <c r="E14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="31"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="31"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="31"/>
+      <c r="C17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4072,13 +4213,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -4185,14 +4326,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -4278,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796D5BC7-2C97-4D9A-BC19-492395EECC53}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4291,14 +4432,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">
@@ -4401,14 +4542,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="16" t="s">

--- a/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
+++ b/系统集成项目管理工程师/10大管理过程(输入-输出-工具-技术)汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngkorW\Desktop\RuanKao\系统集成项目管理工程师\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D530AE6-6C4D-453A-AF02-97CB656F6AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9247C-4CB7-4EC3-BAF6-343AA3CA824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="315">
   <si>
     <t>制定项目章程-制定项目管理计划-指导与管理项目工作-监控项目工作-实施整体变更控制-结束项目或阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1258,56 +1258,6 @@
   </si>
   <si>
     <t>质量保证应该贯穿于整个项目生命期，项目经理不能担任 QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【软件能力成熟度模型】模型包含了从产品需求、设计、开发、编码、测试、交付，A保证产品或服务质量，B项目时间控制，C最低的成本</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类比估算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>既可以针对整个项目，也可以针对项目中的某个部分【成本较低、耗时较少，准确性较低】</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1421,39 +1371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>采购过程中，工作说明书【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】可以随着项目的调整修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOW</t>
-    </r>
-  </si>
-  <si>
     <t>①投标人会议
 ②建议书评价技术
 ③独立估算
@@ -1472,27 +1389,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>信息系统集成的核心是软件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>二八原理，即80%的问题是20%的原因所造成的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>合同变更处理的首要原则是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公平合理</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1557,32 +1454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>沟通渠道M=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>N(N-1)/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其中 N为人数，n &gt;1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>续效审计(三E审计)【经济审计，效率审计，效果审计】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1607,27 +1478,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>信息化6要素:①信息技术应用（龙头主阵地）②信息资源(核心任务)③信息网络(应用基础)④信息技术和产业(建设基础)⑤信息化人才(成功之本)⑥信息化法规(保障)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">从软件开发生命周期的角度划分，可将项目文档分为 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发文档、产品文档、管理文档</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>沉没成本是指由于过去的决策己经发生了的，而不能由现在或将来的任何决策改变的成本，在投资决策时，应避免受到沉没成本的干扰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1653,10 +1503,6 @@
   </si>
   <si>
     <t>成本绩效指数CPI=EV/AC，CPI&lt;1成本超出 CPI&gt;1 成本节约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准差=(悲观时间-乐观时间) /6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1724,24 +1570,6 @@
     <t>估算活动资源[工具和技术]:1专家判断 2备选方案分析 3发布的估算数据 4自下而上估算 5项目管理软件
 估算活动持续时间[工具和技术]:1专家判断 2类比估算 3参数估算 4三点估算 5群体决策技术 6储备分析
 制定进度计划的[工具和技术]:1进度网络分析 2关键路径法 3关键链法 4资源优化技术 建模技术 6提前量和滞后量 7 进度压缩 8进度计划编制工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>全面质量管理4个核心的特征：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>全员参加、全过程、全面方法、全面结果</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1847,10 +1675,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CCB 是决策机构,不是作业机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>实施变更之前4个重要控制点：授权、审核、评估,确认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1884,6 +1708,339 @@
   </si>
   <si>
     <t>信息反映的是事物或者事件确定的状态，具有客观性、普遍性特点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般公认信息系统审计原则包括：ISACA 公告、ISACA 公告职业准则、ISACA 职业道德规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识领域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束过程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2管理沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3控制沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划风险管理
+2识别风险
+3实施定性风险分析
+4实施定量风险分析
+5制定风险分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6控制风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划采购管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2实施采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3控制采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4结束采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1识别干系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2规划干系人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3管理干系人参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4控制干系人参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划人力资源管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划质量管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2实施质量保证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3控制质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划成本管理
+2估算成本
+3制定预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4控制成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规范进度管理
+2定义活动
+3排列活动顺序
+4估算活动资源
+5估算活动持续时间
+6制定进度管理计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7控制进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划范围管理
+2收集需求
+3定义范围
+4创建工作分解结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5确认范围
+6控制范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1制定项目章程 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2制定项目管理计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3指导与管理项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4监控项目工作
+5实施整体变更控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6结束项目或阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1规划沟通管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组建项目团队
+3建设项目团队
+4管理项目团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>667-4343-644</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购过程中，工作说明书【SOW】可以随着项目的调整修改SOW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类比估算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>既可以针对整个项目，也可以针对项目中的某个部分【成本较低、耗时较少，准确性较低】</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CMMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【软件能力成熟度模型】模型包含了从产品需求、设计、开发、编码、测试、交付，A保证产品或服务质量，B项目时间控制，C最低的成本</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合同变更处理的首要原则是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公平合理</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>沟通渠道M=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N(N-1)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其中 N为人数，n &gt;1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">从软件开发生命周期的角度划分，可将项目文档分为 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发文档、产品文档、管理文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全面质量管理4个核心的特征：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全员参加、全过程、全面方法、全面结果</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1896,217 +2053,68 @@
         <u/>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>深入发展阶段</t>
     </r>
   </si>
   <si>
-    <t>IT 服务的核心要素指的是人员、过程、技术、资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般公认信息系统审计原则包括：ISACA 公告、ISACA 公告职业准则、ISACA 职业道德规范</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识领域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动过程组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划过程组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行过程组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控过程组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力资源管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>干系人管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束过程组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规划沟酒管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2管理沟通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3控制沟通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规划风险管理
-2识别风险
-3实施定性风险分析
-4实施定量风险分析
-5制定风险分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6控制风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规划采购管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2实施采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3控制采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4结束采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1识别干系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2规划干系人管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3管理干系人参与</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4控制干系人参与</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规划人力资源管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2组建项目团队
-3建设项目团以
-4管理项目团队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规划质量管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2实施质量保证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3控制质量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规划成本管理
-2估算成本
-3制定预算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4控制成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规范进度管理
-2定义活动
-3排列活动顺序
-4估算活动资源
-5估算活动持续时间
-6制定进度管理计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7控制进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1规划范围管理
-2收集需求
-3定义范围
-4创建工作分解结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5确认范围
-6控制范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1制定项目章程 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2制定项目管理计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3指导与管理项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4监控项目工作
-5实施整体变更控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6结束项目或阶段</t>
+    <t>标准差=(悲观时间-乐观时间)/6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息化6要素:①信息技术应用(龙头主阵地)②信息资源(核心任务)③信息网络(应用基础)④信息技术和产业(建设基础)⑤信息化人才(成功之本)⑥信息化法规(保障)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB是决策机构,不是作业机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信息系统集成的核心是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IT服务的核心要素:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人员、过程、技术、资源</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量风险,对客户的影响最为深远</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险的特性:客观性、偶然性、相对性、社会性、不确定性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWOT通过优势、劣势、机会和威胁角度来分析风险</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2114,7 +2122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2220,69 +2228,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2305,8 +2250,70 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2342,6 +2349,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -2384,7 +2396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2392,17 +2404,20 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2459,14 +2474,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2476,9 +2483,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2503,65 +2543,44 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
     <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="着色 5" xfId="6" builtinId="45"/>
     <cellStyle name="注释" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2849,7 +2868,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="19.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="25.125" style="10" customWidth="1"/>
@@ -2859,13 +2878,13 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:5" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25">
+    <row r="2" spans="1:5" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2879,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63.75">
+    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2893,10 +2912,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2911,7 +2930,7 @@
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="63.75">
+    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2925,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="89.25">
+    <row r="12" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -2939,7 +2958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="63.75">
+    <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +2972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.25">
+    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2984,7 +3003,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="14" customWidth="1"/>
@@ -2992,16 +3011,16 @@
     <col min="4" max="4" width="54.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>186</v>
       </c>
@@ -3015,7 +3034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="128.25">
+    <row r="6" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>172</v>
       </c>
@@ -3029,7 +3048,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="114">
+    <row r="8" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>176</v>
       </c>
@@ -3037,13 +3056,13 @@
         <v>177</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="99.75">
+    <row r="10" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>179</v>
       </c>
@@ -3057,7 +3076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42.75">
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>182</v>
       </c>
@@ -3071,9 +3090,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3087,280 +3106,295 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB5C2F-A290-4F16-B87E-1CE11590255A}">
-  <dimension ref="B2:B54"/>
+  <dimension ref="B2:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="134.875" customWidth="1"/>
+    <col min="2" max="2" width="137.125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="22" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="38" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="16.5">
-      <c r="B21" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="16.5">
-      <c r="B22" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="38" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="38" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="25" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="38" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="38" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="38" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="38" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="38" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="38" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>201</v>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="38" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3371,263 +3405,268 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744D785B-7966-44AE-B509-FA00F80BC85C}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="30" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="20.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="60"/>
+      <c r="F5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="60"/>
+      <c r="F6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="60"/>
+      <c r="F7" s="60"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
+        <v>4</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
+        <v>4</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31">
+        <v>3</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35">
+        <v>6</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="58"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="58"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="58"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="58"/>
+    </row>
+    <row r="27" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
+        <v>4</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D27" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1">
-      <c r="A2" s="54">
-        <v>6</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="54">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="D5" s="41"/>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6" s="41"/>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7" s="41"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:7" s="42" customFormat="1">
-      <c r="A8" s="55">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="44"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="D10" s="44"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="44"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="44"/>
-    </row>
-    <row r="14" spans="1:7" s="45" customFormat="1">
-      <c r="A14" s="56">
-        <v>4</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15" s="48"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="57">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="20" customFormat="1">
-      <c r="A18" s="58">
-        <v>4</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:7" s="42" customFormat="1">
-      <c r="A21" s="55">
-        <v>3</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="51" customFormat="1">
-      <c r="A22" s="59">
-        <v>6</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="D23" s="53"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="D25" s="53"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="D26" s="53"/>
-    </row>
-    <row r="27" spans="1:7" s="20" customFormat="1">
-      <c r="A27" s="58">
-        <v>4</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1">
-      <c r="A28" s="57">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3651,22 +3690,22 @@
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="125.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="28.5">
-      <c r="B2" s="26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="42.75">
-      <c r="B3" s="26" t="s">
-        <v>248</v>
+    <row r="2" spans="2:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3722,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="32.375" style="6" customWidth="1"/>
@@ -3691,14 +3730,14 @@
     <col min="4" max="4" width="91.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -3712,9 +3751,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>28</v>
@@ -3726,7 +3765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="156.75">
+    <row r="8" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
@@ -3740,7 +3779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +3793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.25">
+    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -3768,7 +3807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="71.25">
+    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>44</v>
       </c>
@@ -3782,7 +3821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="71.25">
+    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -3796,19 +3835,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3867,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.625" style="13" customWidth="1"/>
@@ -3836,12 +3875,12 @@
     <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -3855,7 +3894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3869,7 +3908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -3883,7 +3922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="142.5">
+    <row r="10" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -3897,7 +3936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="114">
+    <row r="12" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -3911,7 +3950,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="142.5">
+    <row r="14" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -3925,7 +3964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="185.25">
+    <row r="16" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -3939,7 +3978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="99.75">
+    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -3967,7 +4006,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
@@ -3975,12 +4014,12 @@
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="34" customFormat="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -3994,7 +4033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
@@ -4008,7 +4047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5">
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
@@ -4022,7 +4061,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="128.25">
+    <row r="10" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
@@ -4036,7 +4075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>91</v>
       </c>
@@ -4050,9 +4089,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4114,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="30" style="13" customWidth="1"/>
@@ -4085,13 +4124,13 @@
     <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="35" customFormat="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="35" customFormat="1"/>
-    <row r="5" spans="1:5" s="4" customFormat="1">
+    <row r="2" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4105,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="213.75">
+    <row r="6" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>187</v>
       </c>
@@ -4118,11 +4157,11 @@
       <c r="D6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="171">
+      <c r="E6" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>188</v>
       </c>
@@ -4135,11 +4174,11 @@
       <c r="D8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="114">
+      <c r="E8" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>189</v>
       </c>
@@ -4147,43 +4186,43 @@
         <v>102</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="36" t="s">
-        <v>196</v>
+      <c r="E10" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="47" t="s">
+        <v>194</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="34"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="45"/>
       <c r="E13" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="34"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="45"/>
       <c r="E14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="34"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="45"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="45"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4203,7 +4242,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="13" customWidth="1"/>
@@ -4212,16 +4251,16 @@
     <col min="5" max="5" width="56.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -4235,7 +4274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="71.25">
+    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>105</v>
       </c>
@@ -4249,21 +4288,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="71.25">
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="99.75">
+    <row r="10" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>111</v>
       </c>
@@ -4277,7 +4316,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="85.5">
+    <row r="12" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>115</v>
       </c>
@@ -4291,9 +4330,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4355,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.375" style="13" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="13" customWidth="1"/>
@@ -4325,17 +4364,17 @@
     <col min="5" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4349,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25">
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
@@ -4363,7 +4402,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="71.25">
+    <row r="8" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>124</v>
       </c>
@@ -4377,7 +4416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25">
+    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
@@ -4391,19 +4430,19 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4462,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="13" customWidth="1"/>
@@ -4431,17 +4470,17 @@
     <col min="4" max="4" width="87.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4455,7 +4494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57">
+    <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>133</v>
       </c>
@@ -4469,7 +4508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57">
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>137</v>
       </c>
@@ -4483,7 +4522,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25">
+    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
@@ -4497,7 +4536,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="71.25">
+    <row r="12" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
@@ -4511,9 +4550,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="13" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4533,7 +4572,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="13" customWidth="1"/>
     <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
@@ -4541,17 +4580,17 @@
     <col min="4" max="4" width="29.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4565,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25">
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>149</v>
       </c>
@@ -4579,7 +4618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="185.25">
+    <row r="8" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>153</v>
       </c>
@@ -4593,7 +4632,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="85.5">
+    <row r="10" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>157</v>
       </c>
@@ -4607,7 +4646,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="85.5">
+    <row r="12" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>161</v>
       </c>
@@ -4621,7 +4660,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57">
+    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>164</v>
       </c>
@@ -4635,7 +4674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="85.5">
+    <row r="16" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>168</v>
       </c>
